--- a/data/trans_orig/P6710-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>17788</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10750</v>
+        <v>10894</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27180</v>
+        <v>27094</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05874515010621717</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03550148922585533</v>
+        <v>0.03597842490232717</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08976294918277872</v>
+        <v>0.08947819775745555</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -763,19 +763,19 @@
         <v>17132</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10518</v>
+        <v>10454</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26990</v>
+        <v>26622</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08902734385849198</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0546557012734463</v>
+        <v>0.05432554437339788</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1402563911423921</v>
+        <v>0.1383427237928403</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -784,19 +784,19 @@
         <v>34920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24897</v>
+        <v>24439</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48188</v>
+        <v>47515</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07051191348139632</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05027234425165996</v>
+        <v>0.04934726746321731</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09730365984701213</v>
+        <v>0.09594351948414585</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>18388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10825</v>
+        <v>11306</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29353</v>
+        <v>29312</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06072464204728523</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03574970847535554</v>
+        <v>0.03733797011335022</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09693793593966193</v>
+        <v>0.09680353057230415</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -834,19 +834,19 @@
         <v>20242</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12711</v>
+        <v>12290</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30880</v>
+        <v>31425</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1051893689889859</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06605457567704397</v>
+        <v>0.06386742421474251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1604688050991429</v>
+        <v>0.1633018479973129</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -855,19 +855,19 @@
         <v>38630</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27487</v>
+        <v>28027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52900</v>
+        <v>53515</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07800231765906755</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.055501983402672</v>
+        <v>0.05659237261453669</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1068181142134168</v>
+        <v>0.1080588468457937</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>50660</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38969</v>
+        <v>38526</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67191</v>
+        <v>64963</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1673030581794394</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1286945615445077</v>
+        <v>0.1272320042389375</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2218967156290061</v>
+        <v>0.2145376074490839</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -905,19 +905,19 @@
         <v>39484</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28434</v>
+        <v>29159</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49821</v>
+        <v>53671</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2051820999072799</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.147759884583154</v>
+        <v>0.151526436136346</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2589009498685736</v>
+        <v>0.2789037040803373</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>83</v>
@@ -926,19 +926,19 @@
         <v>90144</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>73853</v>
+        <v>72220</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>108515</v>
+        <v>107665</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1820217316195548</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1491257342400023</v>
+        <v>0.1458284620587394</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.219117002105307</v>
+        <v>0.2174010105846591</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>69756</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55232</v>
+        <v>56359</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88073</v>
+        <v>87956</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2303682032651763</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1824036567008991</v>
+        <v>0.1861242258514407</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2908588827372671</v>
+        <v>0.2904737622425228</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -976,19 +976,19 @@
         <v>29085</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20447</v>
+        <v>20648</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40475</v>
+        <v>41269</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1511433009388951</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1062547042668211</v>
+        <v>0.1072985115050537</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2103294849449048</v>
+        <v>0.2144566322692875</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -997,19 +997,19 @@
         <v>98841</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81730</v>
+        <v>81553</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118658</v>
+        <v>119400</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1995837532771366</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1650319470958668</v>
+        <v>0.1646746571486393</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2395977394173226</v>
+        <v>0.2410965236892906</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>146211</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>128282</v>
+        <v>129186</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>163914</v>
+        <v>165775</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4828589464018819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.423649356769455</v>
+        <v>0.4266327092746138</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5413221741623516</v>
+        <v>0.5474684215947657</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>76</v>
@@ -1047,19 +1047,19 @@
         <v>86491</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72962</v>
+        <v>71434</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>100462</v>
+        <v>100882</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4494578863063471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.379153909059807</v>
+        <v>0.3712131694242119</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5220570934506747</v>
+        <v>0.5242433946080007</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>212</v>
@@ -1068,19 +1068,19 @@
         <v>232702</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>208157</v>
+        <v>209327</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>256994</v>
+        <v>257048</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4698802839628447</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4203175484338108</v>
+        <v>0.422679503849498</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.518931442756857</v>
+        <v>0.519040812088684</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>11563</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5886</v>
+        <v>6137</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20538</v>
+        <v>21054</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04523793221625873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02302775658652747</v>
+        <v>0.02401035443557809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08035408047405651</v>
+        <v>0.08236977900805026</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1193,19 +1193,19 @@
         <v>17625</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10243</v>
+        <v>9927</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27793</v>
+        <v>27902</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1073868648277276</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06241048993403712</v>
+        <v>0.06048456724358992</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.169341626023004</v>
+        <v>0.1700066020272049</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -1214,19 +1214,19 @@
         <v>29188</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19196</v>
+        <v>19438</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41622</v>
+        <v>41533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06954011112261155</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04573472210577188</v>
+        <v>0.0463109090030127</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0991651993956784</v>
+        <v>0.09895453808755501</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>17696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10718</v>
+        <v>10631</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26565</v>
+        <v>27641</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06923326707318979</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04193332568654909</v>
+        <v>0.04159284489469618</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1039326355841022</v>
+        <v>0.1081427473239714</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1264,19 +1264,19 @@
         <v>12740</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6785</v>
+        <v>6881</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22235</v>
+        <v>21340</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07762432879585013</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04134183397414794</v>
+        <v>0.04192470023440135</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1354793725236738</v>
+        <v>0.1300212221215585</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -1285,19 +1285,19 @@
         <v>30436</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19998</v>
+        <v>21351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42523</v>
+        <v>44187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07251443498114368</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04764584866767971</v>
+        <v>0.05087048247677212</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.101311797071452</v>
+        <v>0.1052758271266432</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>62417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47405</v>
+        <v>48513</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>77887</v>
+        <v>78363</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2442015441409637</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1854675242634901</v>
+        <v>0.1898030980614289</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.304722971413255</v>
+        <v>0.3065871196327506</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -1335,19 +1335,19 @@
         <v>38725</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28059</v>
+        <v>28171</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50599</v>
+        <v>50949</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2359517066044898</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1709597486220989</v>
+        <v>0.1716439426553253</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3082970169275632</v>
+        <v>0.310428608993782</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>90</v>
@@ -1356,19 +1356,19 @@
         <v>101143</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>83843</v>
+        <v>84043</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>121821</v>
+        <v>121016</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2409755993123837</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1997586951086202</v>
+        <v>0.2002354794262065</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2902420989604429</v>
+        <v>0.2883253159667841</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>64234</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51281</v>
+        <v>50414</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80157</v>
+        <v>81261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2513075967269497</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2006319782288279</v>
+        <v>0.1972384830234692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3136053296842237</v>
+        <v>0.3179267933251579</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -1406,19 +1406,19 @@
         <v>37801</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26553</v>
+        <v>26407</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49478</v>
+        <v>48926</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2303204254948131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1617838482377951</v>
+        <v>0.1608938187449425</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3014653736094658</v>
+        <v>0.2981066500260913</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -1427,19 +1427,19 @@
         <v>102035</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85468</v>
+        <v>83804</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>120812</v>
+        <v>119408</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2431009555411682</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2036302746320159</v>
+        <v>0.1996650229970514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2878381003156003</v>
+        <v>0.2844922577433617</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>99688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83381</v>
+        <v>82083</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116390</v>
+        <v>117690</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.390019659842638</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3262186847668731</v>
+        <v>0.3211429019184726</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4553633365514839</v>
+        <v>0.4604512973030565</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -1477,19 +1477,19 @@
         <v>57233</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44675</v>
+        <v>44161</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70933</v>
+        <v>69776</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3487166742771193</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2722016790721487</v>
+        <v>0.2690696013054804</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4321937104179531</v>
+        <v>0.4251390497624074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>137</v>
@@ -1498,19 +1498,19 @@
         <v>156921</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>137332</v>
+        <v>137125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>179363</v>
+        <v>177683</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3738688990426929</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3271985157849845</v>
+        <v>0.3267033186659685</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4273375793442655</v>
+        <v>0.4233359628991116</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>17697</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10317</v>
+        <v>10016</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29525</v>
+        <v>28192</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06328957920482461</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03689775227889183</v>
+        <v>0.03582045719398583</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1055879423526225</v>
+        <v>0.1008202195976671</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1623,19 +1623,19 @@
         <v>6006</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2001</v>
+        <v>2071</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11953</v>
+        <v>12116</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05482548153037629</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01826817163361544</v>
+        <v>0.01891004632308116</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1091173894052696</v>
+        <v>0.1106080547814563</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1644,19 +1644,19 @@
         <v>23703</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14412</v>
+        <v>15081</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35244</v>
+        <v>35291</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06090712899986554</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0370321945489688</v>
+        <v>0.03875117662005031</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09056401751907113</v>
+        <v>0.09068500737799558</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>15320</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8928</v>
+        <v>9002</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24580</v>
+        <v>23043</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05478860576416721</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03192712110285572</v>
+        <v>0.03219196717207222</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08790333402748547</v>
+        <v>0.08240885081587861</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1694,19 +1694,19 @@
         <v>5176</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1941</v>
+        <v>2011</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11351</v>
+        <v>11576</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04725207743351227</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01771737248132458</v>
+        <v>0.01835905408632725</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1036260419373015</v>
+        <v>0.1056761859456121</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1715,19 +1715,19 @@
         <v>20496</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13050</v>
+        <v>13142</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30887</v>
+        <v>30564</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05266724514704518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03353372979670621</v>
+        <v>0.03377037123077056</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07936781204315949</v>
+        <v>0.07853750037195963</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>48128</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37006</v>
+        <v>37306</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>61697</v>
+        <v>63191</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1721157902693846</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1323420314204644</v>
+        <v>0.1334164275608393</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2206421836544083</v>
+        <v>0.2259876542274583</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1765,19 +1765,19 @@
         <v>17128</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9956</v>
+        <v>11165</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26180</v>
+        <v>27034</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1563645056468748</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0908847942490926</v>
+        <v>0.1019224021880853</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2389927724786453</v>
+        <v>0.2467959815418319</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>63</v>
@@ -1786,19 +1786,19 @@
         <v>65256</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>50899</v>
+        <v>51160</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>82413</v>
+        <v>80522</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1676821633524182</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1307902300316602</v>
+        <v>0.1314618560578854</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2117684986874216</v>
+        <v>0.2069096524271638</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>54794</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43075</v>
+        <v>43679</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68243</v>
+        <v>70211</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1959577585621447</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1540482784307018</v>
+        <v>0.1562076419481415</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2440552718154165</v>
+        <v>0.2510927040925474</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1836,19 +1836,19 @@
         <v>11497</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6436</v>
+        <v>6118</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20138</v>
+        <v>19217</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1049520330155047</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0587509442341425</v>
+        <v>0.05584796906470191</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1838400055718395</v>
+        <v>0.1754328435305982</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>67</v>
@@ -1857,19 +1857,19 @@
         <v>66291</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52535</v>
+        <v>52406</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83392</v>
+        <v>80750</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1703417250733566</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1349951153789341</v>
+        <v>0.1346641238193639</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2142859854054832</v>
+        <v>0.207494813198754</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>143684</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>127121</v>
+        <v>124312</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159310</v>
+        <v>158975</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5138482661994789</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.45461584379984</v>
+        <v>0.4445698001544326</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5697317751511254</v>
+        <v>0.5685336597461357</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>66</v>
@@ -1907,19 +1907,19 @@
         <v>69734</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58980</v>
+        <v>59436</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79831</v>
+        <v>79439</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6366059023737318</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5384270580052978</v>
+        <v>0.542592550654096</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7287729077083777</v>
+        <v>0.7252001652878105</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>205</v>
@@ -1928,19 +1928,19 @@
         <v>213418</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>192532</v>
+        <v>195140</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>234407</v>
+        <v>233373</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5484017374273146</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4947329259641849</v>
+        <v>0.5014344637882397</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6023355704823136</v>
+        <v>0.5996766189512331</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>62682</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49815</v>
+        <v>48754</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>79378</v>
+        <v>80857</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1500118530873549</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1192186547996836</v>
+        <v>0.1166785006847341</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.189967798198812</v>
+        <v>0.1935086385692576</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -2053,19 +2053,19 @@
         <v>51195</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40294</v>
+        <v>39006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66617</v>
+        <v>66683</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1707464645878012</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1343892532644907</v>
+        <v>0.1300947549802243</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2221819691311114</v>
+        <v>0.2224040427480033</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -2074,19 +2074,19 @@
         <v>113877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96252</v>
+        <v>92823</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>135803</v>
+        <v>137743</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1586742907625314</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1341154636168598</v>
+        <v>0.1293377536792012</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1892256833253495</v>
+        <v>0.1919283457736669</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>45197</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>33208</v>
+        <v>33209</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>60390</v>
+        <v>61128</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1081665740768909</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07947414702259795</v>
+        <v>0.07947645965142175</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1445272001338588</v>
+        <v>0.1462928163283685</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -2124,19 +2124,19 @@
         <v>34951</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24674</v>
+        <v>24207</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>48922</v>
+        <v>47299</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1165703390111721</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08229334143159271</v>
+        <v>0.08073600072845308</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1631668116432821</v>
+        <v>0.1577547744617249</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>71</v>
@@ -2145,19 +2145,19 @@
         <v>80148</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>63396</v>
+        <v>64709</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>98963</v>
+        <v>101215</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1116774713019716</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08833436400858732</v>
+        <v>0.09016394623213721</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1378938593332557</v>
+        <v>0.1410311235469871</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>98381</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>80328</v>
+        <v>81566</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>117520</v>
+        <v>117109</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2354465554491981</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1922415729459328</v>
+        <v>0.1952046827258943</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2812498083049554</v>
+        <v>0.2802672413835926</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>51</v>
@@ -2195,19 +2195,19 @@
         <v>52898</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39692</v>
+        <v>41559</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>66801</v>
+        <v>66355</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1764273308910436</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1323835859470762</v>
+        <v>0.1386086926004015</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2227981898123908</v>
+        <v>0.2213079465242189</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>144</v>
@@ -2216,19 +2216,19 @@
         <v>151279</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>128707</v>
+        <v>131359</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>173847</v>
+        <v>176112</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2107896982729133</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1793377678755035</v>
+        <v>0.1830340565922956</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2422352972783215</v>
+        <v>0.2453917373095196</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>81781</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64799</v>
+        <v>65775</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99842</v>
+        <v>98148</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1957188557319724</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1550774272906876</v>
+        <v>0.1574131000698269</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.238944486271832</v>
+        <v>0.2348885692360079</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -2266,19 +2266,19 @@
         <v>70289</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55558</v>
+        <v>56937</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>85326</v>
+        <v>86085</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2344295238531716</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1853004976186917</v>
+        <v>0.1898966470772216</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2845813676513809</v>
+        <v>0.2871146758112664</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>145</v>
@@ -2287,19 +2287,19 @@
         <v>152069</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>131018</v>
+        <v>130365</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>175173</v>
+        <v>175000</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2118912711137176</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1825585066927864</v>
+        <v>0.1816491695228829</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2440828593038133</v>
+        <v>0.2438417689662839</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>129807</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>108936</v>
+        <v>112610</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>148760</v>
+        <v>150741</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3106561616545837</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2607069424996121</v>
+        <v>0.2695010917995359</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3560141204511181</v>
+        <v>0.3607559323333553</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>85</v>
@@ -2337,19 +2337,19 @@
         <v>90496</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>74681</v>
+        <v>75290</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106429</v>
+        <v>106998</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3018263416568115</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2490783582101595</v>
+        <v>0.2511089282331054</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3549648232452363</v>
+        <v>0.3568646967778346</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>211</v>
@@ -2358,19 +2358,19 @@
         <v>220303</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>196603</v>
+        <v>195099</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>243716</v>
+        <v>244572</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3069672685488661</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2739432423377817</v>
+        <v>0.2718485362147334</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3395898460192951</v>
+        <v>0.3407824991302375</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>28859</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20076</v>
+        <v>19931</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>39921</v>
+        <v>39872</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1913655773666924</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1331272251217889</v>
+        <v>0.1321624581280445</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2647183361642858</v>
+        <v>0.2643983994154819</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>28</v>
@@ -2483,19 +2483,19 @@
         <v>30854</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>21588</v>
+        <v>21473</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>43145</v>
+        <v>42343</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1796019232782929</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1256633262939684</v>
+        <v>0.1249958630381384</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2511509374262855</v>
+        <v>0.2464832305659234</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>55</v>
@@ -2504,19 +2504,19 @@
         <v>59712</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>46953</v>
+        <v>46399</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>76385</v>
+        <v>75714</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1851011172780784</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1455486938120626</v>
+        <v>0.1438312239952587</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2367828953084521</v>
+        <v>0.2347038428740448</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>15405</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8885</v>
+        <v>8969</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24323</v>
+        <v>24778</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1021526350023334</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05891984360224909</v>
+        <v>0.05947634607047616</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1612869170162919</v>
+        <v>0.1643071990491677</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>18</v>
@@ -2554,19 +2554,19 @@
         <v>18794</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11046</v>
+        <v>12029</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27428</v>
+        <v>28344</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1093996610967051</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0642997537669414</v>
+        <v>0.07002152601689894</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1596585274220872</v>
+        <v>0.1649913745592928</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>32</v>
@@ -2575,19 +2575,19 @@
         <v>34199</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>23697</v>
+        <v>24606</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>47822</v>
+        <v>46559</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1060118700145313</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07345774442765046</v>
+        <v>0.07627608761257322</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1482431518200251</v>
+        <v>0.1443283483164342</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>34003</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24664</v>
+        <v>24043</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>44712</v>
+        <v>46095</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2254780484496298</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.163550367320508</v>
+        <v>0.1594341128273806</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2964940298491201</v>
+        <v>0.3056598304964899</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -2625,19 +2625,19 @@
         <v>28098</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18801</v>
+        <v>19213</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>39004</v>
+        <v>40744</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1635629006652502</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1094437035748596</v>
+        <v>0.1118380271456276</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2270485847023753</v>
+        <v>0.2371758715356866</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>57</v>
@@ -2646,19 +2646,19 @@
         <v>62101</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>47602</v>
+        <v>48761</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>77137</v>
+        <v>78207</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1925065780832607</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1475600189454299</v>
+        <v>0.1511543741830651</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2391153487444282</v>
+        <v>0.2424335334862319</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>30535</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21599</v>
+        <v>22276</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41824</v>
+        <v>41894</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2024786178201858</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1432280713710558</v>
+        <v>0.1477159952868647</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2773418780482161</v>
+        <v>0.2778042907138544</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>36</v>
@@ -2696,19 +2696,19 @@
         <v>39230</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>28705</v>
+        <v>28354</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>52161</v>
+        <v>50994</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2283611161664114</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1670936268566537</v>
+        <v>0.1650485269944336</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3036358363335231</v>
+        <v>0.2968390247999911</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>65</v>
@@ -2717,19 +2717,19 @@
         <v>69765</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>55150</v>
+        <v>54939</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>86463</v>
+        <v>85028</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2162617396856475</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1709569271383136</v>
+        <v>0.1703053750779171</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2680257892917604</v>
+        <v>0.2635772203361501</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>42003</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>31874</v>
+        <v>30867</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>53336</v>
+        <v>53792</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2785251213611586</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2113610668816262</v>
+        <v>0.2046826893186347</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3536790392017522</v>
+        <v>0.356704316629192</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -2767,19 +2767,19 @@
         <v>54813</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>42354</v>
+        <v>41094</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>69047</v>
+        <v>68669</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3190743987933405</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2465451223182508</v>
+        <v>0.2392107180437931</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4019285636650766</v>
+        <v>0.3997307071533298</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>89</v>
@@ -2788,19 +2788,19 @@
         <v>96816</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>80508</v>
+        <v>80918</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>115177</v>
+        <v>113093</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3001186949384822</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.249566089806328</v>
+        <v>0.2508359987520157</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3570342588827801</v>
+        <v>0.3505760013774239</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>138589</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>115653</v>
+        <v>116299</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>161445</v>
+        <v>163880</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09852233575429521</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08221712366291971</v>
+        <v>0.08267644145177092</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1147706967523816</v>
+        <v>0.1165014380001159</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>114</v>
@@ -2913,19 +2913,19 @@
         <v>122811</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>105214</v>
+        <v>103585</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>143560</v>
+        <v>145850</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.130967719040766</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1122023104065496</v>
+        <v>0.1104653545029503</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1530948616540439</v>
+        <v>0.1555370182591926</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>243</v>
@@ -2934,19 +2934,19 @@
         <v>261400</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>230672</v>
+        <v>230547</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>294958</v>
+        <v>290679</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1114999436165553</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09839299039237857</v>
+        <v>0.09833991901025221</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.125814327552921</v>
+        <v>0.1239890529585781</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>112006</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>93042</v>
+        <v>91076</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>134701</v>
+        <v>135710</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07962448758153806</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06614340712724064</v>
+        <v>0.06474581291401517</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09575828563218951</v>
+        <v>0.09647578407560309</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>83</v>
@@ -2984,19 +2984,19 @@
         <v>91903</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>73522</v>
+        <v>73471</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>111102</v>
+        <v>113159</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09800707145943535</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07840556900657634</v>
+        <v>0.078351155685044</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1184811527899216</v>
+        <v>0.1206750965263645</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>185</v>
@@ -3005,19 +3005,19 @@
         <v>203909</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>175072</v>
+        <v>175776</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>235071</v>
+        <v>232491</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08697721209571979</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0746767363520088</v>
+        <v>0.07497727455559938</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1002695066882403</v>
+        <v>0.09916907763609885</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>293588</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>264993</v>
+        <v>260518</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>327069</v>
+        <v>325493</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2087109446094607</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1883825676087348</v>
+        <v>0.1852014443370812</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2325122010128136</v>
+        <v>0.2313920635452418</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>163</v>
@@ -3055,19 +3055,19 @@
         <v>176334</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>155345</v>
+        <v>155169</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>203430</v>
+        <v>202985</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1880461182124862</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1656622986364352</v>
+        <v>0.1654752918380249</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2169415066882214</v>
+        <v>0.2164670546782912</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>437</v>
@@ -3076,19 +3076,19 @@
         <v>469923</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>431065</v>
+        <v>431015</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>508010</v>
+        <v>511225</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2004453614553408</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1838706043557537</v>
+        <v>0.183849182459204</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2166913879356115</v>
+        <v>0.2180626634734836</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>301099</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>268710</v>
+        <v>271899</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>334174</v>
+        <v>335706</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2140503518733906</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1910247830494356</v>
+        <v>0.1932922136962496</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2375633605866004</v>
+        <v>0.2386518632288294</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>177</v>
@@ -3126,19 +3126,19 @@
         <v>187902</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>164114</v>
+        <v>162602</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>215416</v>
+        <v>214035</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2003818599326855</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1750137094698734</v>
+        <v>0.1734020529226805</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2297234344175531</v>
+        <v>0.2282505011290638</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>468</v>
@@ -3147,19 +3147,19 @@
         <v>489001</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>448812</v>
+        <v>451499</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>529510</v>
+        <v>530610</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2085831848835988</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1914407340125751</v>
+        <v>0.1925865721103756</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.225862149098775</v>
+        <v>0.2263314352455639</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>561393</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>526897</v>
+        <v>524772</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>599331</v>
+        <v>604126</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3990918801813154</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3745693537260401</v>
+        <v>0.3730581446760359</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.426062408314538</v>
+        <v>0.429470777992503</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>328</v>
@@ -3197,19 +3197,19 @@
         <v>358768</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>328238</v>
+        <v>329234</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>387284</v>
+        <v>387612</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3825972313546269</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3500395367872458</v>
+        <v>0.3511013523422671</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4130073330491978</v>
+        <v>0.413356328866592</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>854</v>
@@ -3218,19 +3218,19 @@
         <v>920161</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>872572</v>
+        <v>873440</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>969883</v>
+        <v>970842</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3924942979487852</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3721952291547888</v>
+        <v>0.3725656156645795</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4137032281214945</v>
+        <v>0.4141121447631055</v>
       </c>
     </row>
     <row r="39">
@@ -3563,19 +3563,19 @@
         <v>27285</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18101</v>
+        <v>18021</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39058</v>
+        <v>38819</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09884069686571846</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0655694063358048</v>
+        <v>0.06528248620517478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1414872917211741</v>
+        <v>0.1406218998515712</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -3584,19 +3584,19 @@
         <v>35157</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25255</v>
+        <v>24076</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47698</v>
+        <v>46978</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1641506446222477</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1179200975602419</v>
+        <v>0.1124149023933938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.222707458158726</v>
+        <v>0.2193455013319127</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -3605,19 +3605,19 @@
         <v>62442</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47933</v>
+        <v>47840</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78358</v>
+        <v>79243</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.127373840859812</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09777722866390332</v>
+        <v>0.09758691244815472</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1598395727214988</v>
+        <v>0.1616458241829079</v>
       </c>
     </row>
     <row r="5">
@@ -3634,19 +3634,19 @@
         <v>29928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20633</v>
+        <v>20294</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43273</v>
+        <v>42585</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1084132783314773</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07474281030368687</v>
+        <v>0.07351487977412288</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1567573094033328</v>
+        <v>0.1542638156899887</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -3655,19 +3655,19 @@
         <v>35393</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25510</v>
+        <v>25123</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46596</v>
+        <v>47691</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.165255522733547</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1191092556651304</v>
+        <v>0.1173035675003333</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2175593163215537</v>
+        <v>0.2226744914605038</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -3676,19 +3676,19 @@
         <v>65321</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51134</v>
+        <v>50639</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81556</v>
+        <v>83221</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1332469828464157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1043074075531263</v>
+        <v>0.1032962263257247</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1663647090738198</v>
+        <v>0.1697609687595611</v>
       </c>
     </row>
     <row r="6">
@@ -3705,19 +3705,19 @@
         <v>76742</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62175</v>
+        <v>62782</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>93166</v>
+        <v>94080</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2779983997444745</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2252282764884068</v>
+        <v>0.2274278626359052</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3374918213131342</v>
+        <v>0.3408052496313806</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>64</v>
@@ -3726,19 +3726,19 @@
         <v>64405</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51711</v>
+        <v>51274</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>79329</v>
+        <v>78843</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3007151697028058</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2414444993335619</v>
+        <v>0.2394016364949587</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.370394795919109</v>
+        <v>0.3681240339947384</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>134</v>
@@ -3747,19 +3747,19 @@
         <v>141148</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>120085</v>
+        <v>123054</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>161157</v>
+        <v>164825</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2879230879515167</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2449571697515593</v>
+        <v>0.2510142875407879</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3287385480582395</v>
+        <v>0.3362208536755165</v>
       </c>
     </row>
     <row r="7">
@@ -3776,19 +3776,19 @@
         <v>53198</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40713</v>
+        <v>40547</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68774</v>
+        <v>68426</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1927090196891829</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1474835653805071</v>
+        <v>0.1468805812287744</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2491328060392544</v>
+        <v>0.2478722712990366</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -3797,19 +3797,19 @@
         <v>22156</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14439</v>
+        <v>14343</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32143</v>
+        <v>32500</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1034471179242072</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06741885416276373</v>
+        <v>0.06696825798288922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1500794835186267</v>
+        <v>0.1517480787297839</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -3818,19 +3818,19 @@
         <v>75354</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58879</v>
+        <v>59949</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92002</v>
+        <v>91969</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1537115501805342</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.120105403137072</v>
+        <v>0.1222891585513512</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1876727703490996</v>
+        <v>0.1876042068757208</v>
       </c>
     </row>
     <row r="8">
@@ -3847,19 +3847,19 @@
         <v>88900</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>73467</v>
+        <v>72926</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>104348</v>
+        <v>105862</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.322038605369147</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2661323602188936</v>
+        <v>0.2641751849541166</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3779992583310023</v>
+        <v>0.3834837210915062</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -3868,19 +3868,19 @@
         <v>57063</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>43849</v>
+        <v>43807</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70376</v>
+        <v>71766</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2664315450171924</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2047367130440397</v>
+        <v>0.2045406266808383</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3285906563358107</v>
+        <v>0.335082909278501</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>135</v>
@@ -3889,19 +3889,19 @@
         <v>145962</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>126183</v>
+        <v>125994</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>168131</v>
+        <v>166872</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2977445381617215</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2573976858109933</v>
+        <v>0.2570123819402867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3429655467821235</v>
+        <v>0.3403968492898524</v>
       </c>
     </row>
     <row r="9">
@@ -3993,19 +3993,19 @@
         <v>30004</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21111</v>
+        <v>20389</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41906</v>
+        <v>42909</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1233520195900685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08679297766982946</v>
+        <v>0.08382362842350072</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1722841471288786</v>
+        <v>0.1764083584248064</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -4014,19 +4014,19 @@
         <v>25275</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17531</v>
+        <v>16786</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35698</v>
+        <v>35595</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1336043232622161</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09267290169291431</v>
+        <v>0.08873314822141903</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1887021562022409</v>
+        <v>0.1881554944554764</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -4035,19 +4035,19 @@
         <v>55279</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42138</v>
+        <v>42158</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70387</v>
+        <v>70874</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.127837293860628</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09744907468289647</v>
+        <v>0.0974956902486285</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1627778248868992</v>
+        <v>0.1639031464719631</v>
       </c>
     </row>
     <row r="11">
@@ -4064,19 +4064,19 @@
         <v>39213</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28687</v>
+        <v>27975</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53532</v>
+        <v>52576</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1612146336149827</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1179369104857977</v>
+        <v>0.1150122948799261</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2200815992961383</v>
+        <v>0.2161532511480348</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -4085,19 +4085,19 @@
         <v>33575</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23147</v>
+        <v>23567</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44384</v>
+        <v>45430</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1774792332990995</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1223586801424999</v>
+        <v>0.1245793508338636</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.234618596056935</v>
+        <v>0.2401466603580714</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -4106,19 +4106,19 @@
         <v>72788</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>57078</v>
+        <v>58476</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>88924</v>
+        <v>90076</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1683302237122898</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1319987286021623</v>
+        <v>0.1352316940193568</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2056469870166779</v>
+        <v>0.2083100375234596</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +4135,19 @@
         <v>63452</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>50214</v>
+        <v>49626</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>79094</v>
+        <v>78527</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.260864896518899</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.206442339286411</v>
+        <v>0.2040230192755262</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3251717214854774</v>
+        <v>0.3228399760536342</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -4156,19 +4156,19 @@
         <v>50749</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38214</v>
+        <v>39454</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>62699</v>
+        <v>65229</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2682620596842359</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2020038610022296</v>
+        <v>0.2085590616334589</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3314339470243292</v>
+        <v>0.3448038166696552</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>109</v>
@@ -4177,19 +4177,19 @@
         <v>114201</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>97077</v>
+        <v>95072</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>134397</v>
+        <v>133114</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2641010770575961</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2245001234419244</v>
+        <v>0.219863497938937</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3108073911568242</v>
+        <v>0.3078402859763504</v>
       </c>
     </row>
     <row r="13">
@@ -4206,19 +4206,19 @@
         <v>50062</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37918</v>
+        <v>38522</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64121</v>
+        <v>63093</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2058152060931833</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1558890748631344</v>
+        <v>0.1583741920461372</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2636154521819212</v>
+        <v>0.2593904397234597</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -4227,19 +4227,19 @@
         <v>40752</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30392</v>
+        <v>30578</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52831</v>
+        <v>54142</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2154163908346671</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1606521273897058</v>
+        <v>0.1616362294789337</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.279270014346688</v>
+        <v>0.2861993900680786</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -4248,19 +4248,19 @@
         <v>90813</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73221</v>
+        <v>72419</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108375</v>
+        <v>109889</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2100156227278229</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1693311968178892</v>
+        <v>0.1674775194242548</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2506285917490736</v>
+        <v>0.2541308320696822</v>
       </c>
     </row>
     <row r="14">
@@ -4277,19 +4277,19 @@
         <v>60506</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46246</v>
+        <v>46883</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>75664</v>
+        <v>76202</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2487532441828665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1901282307364359</v>
+        <v>0.1927470145301307</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3110706374900031</v>
+        <v>0.3132847886319698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -4298,19 +4298,19 @@
         <v>38826</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28276</v>
+        <v>27915</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51551</v>
+        <v>50467</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2052379929197814</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1494699533330281</v>
+        <v>0.1475625366762062</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2725018443302847</v>
+        <v>0.2667702176594119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>92</v>
@@ -4319,19 +4319,19 @@
         <v>99332</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>82003</v>
+        <v>82067</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117655</v>
+        <v>118358</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2297157826416632</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1896411324521473</v>
+        <v>0.189789530175985</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2720889073654344</v>
+        <v>0.2737140472854229</v>
       </c>
     </row>
     <row r="15">
@@ -4423,19 +4423,19 @@
         <v>14877</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8351</v>
+        <v>8114</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24330</v>
+        <v>23963</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06877015009180246</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03860172967213785</v>
+        <v>0.03750946678411594</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1124698883545845</v>
+        <v>0.110770836562202</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4444,19 +4444,19 @@
         <v>3013</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8203</v>
+        <v>8580</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04627165111414724</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01423428460149807</v>
+        <v>0.01413002304019626</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1259746941494623</v>
+        <v>0.1317584847285972</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -4465,19 +4465,19 @@
         <v>17890</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10580</v>
+        <v>10387</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28078</v>
+        <v>27795</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06356464111939455</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03759132184014344</v>
+        <v>0.03690709552424453</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09976290563277972</v>
+        <v>0.09875848736979501</v>
       </c>
     </row>
     <row r="17">
@@ -4494,19 +4494,19 @@
         <v>22973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14672</v>
+        <v>15169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33144</v>
+        <v>33597</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1061989482335245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06782406091832606</v>
+        <v>0.07011975563850781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1532116646663567</v>
+        <v>0.1553072326879862</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -4515,19 +4515,19 @@
         <v>6964</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3000</v>
+        <v>2888</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13818</v>
+        <v>13785</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.106942314930753</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0460776860405531</v>
+        <v>0.04435633210952142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2121945618871004</v>
+        <v>0.2116954931872768</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -4536,19 +4536,19 @@
         <v>29937</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19889</v>
+        <v>19831</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41528</v>
+        <v>41358</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1063709420192457</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07066652204089564</v>
+        <v>0.07046145024568475</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1475544524172448</v>
+        <v>0.1469490391687445</v>
       </c>
     </row>
     <row r="18">
@@ -4565,19 +4565,19 @@
         <v>54206</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42174</v>
+        <v>41538</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>68303</v>
+        <v>67143</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2505780152647718</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1949557992610882</v>
+        <v>0.1920173393707406</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3157410279280486</v>
+        <v>0.3103791810033347</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -4586,19 +4586,19 @@
         <v>8492</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3962</v>
+        <v>3763</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14307</v>
+        <v>15414</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1304067203402174</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.060842204411617</v>
+        <v>0.0577895107570649</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2197110031144347</v>
+        <v>0.2367102907634717</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -4607,19 +4607,19 @@
         <v>62698</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51242</v>
+        <v>49848</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>78553</v>
+        <v>76871</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2227738157678666</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1820695926562115</v>
+        <v>0.1771146553588059</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2791077081618424</v>
+        <v>0.273133424129653</v>
       </c>
     </row>
     <row r="19">
@@ -4636,19 +4636,19 @@
         <v>57363</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45248</v>
+        <v>45860</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73078</v>
+        <v>71760</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2651727394894522</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2091666075746999</v>
+        <v>0.2119944050438313</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3378175431876708</v>
+        <v>0.3317246548964121</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -4657,19 +4657,19 @@
         <v>12681</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6622</v>
+        <v>7288</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20292</v>
+        <v>20277</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1947333984506799</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1016892673151442</v>
+        <v>0.1119127826889182</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3116243639934849</v>
+        <v>0.3113844071683182</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>65</v>
@@ -4678,19 +4678,19 @@
         <v>70044</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55276</v>
+        <v>55657</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>85909</v>
+        <v>85568</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2488750912706979</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1964015482097942</v>
+        <v>0.1977561417954866</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3052460385657773</v>
+        <v>0.3040345775161549</v>
       </c>
     </row>
     <row r="20">
@@ -4707,19 +4707,19 @@
         <v>66905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53300</v>
+        <v>53660</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>80022</v>
+        <v>81904</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3092801469204491</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2463898400866989</v>
+        <v>0.2480508085279609</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3699169695864479</v>
+        <v>0.3786150011872544</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -4728,19 +4728,19 @@
         <v>33969</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25379</v>
+        <v>25986</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41925</v>
+        <v>42399</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5216459151642024</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3897328886788618</v>
+        <v>0.399057054906672</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6438272032233593</v>
+        <v>0.6511140781125655</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>97</v>
@@ -4749,19 +4749,19 @@
         <v>100874</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>86047</v>
+        <v>85903</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>117124</v>
+        <v>118820</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3584155098227952</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3057340862283933</v>
+        <v>0.3052248039983599</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4161547718932696</v>
+        <v>0.422181884898043</v>
       </c>
     </row>
     <row r="21">
@@ -4853,19 +4853,19 @@
         <v>68890</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54381</v>
+        <v>54296</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>86075</v>
+        <v>83847</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1412548388360843</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1115054580196707</v>
+        <v>0.1113305844590894</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1764913483241965</v>
+        <v>0.1719222993161512</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -4874,19 +4874,19 @@
         <v>62346</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47754</v>
+        <v>48906</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>75939</v>
+        <v>75773</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1708390531399321</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1308544066493619</v>
+        <v>0.1340099491723687</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2080851883817744</v>
+        <v>0.2076305552288759</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>129</v>
@@ -4895,19 +4895,19 @@
         <v>131236</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>110290</v>
+        <v>110527</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151700</v>
+        <v>152211</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1539172533829733</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1293503525590836</v>
+        <v>0.1296286777029782</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1779172062591563</v>
+        <v>0.1785173460411196</v>
       </c>
     </row>
     <row r="23">
@@ -4924,19 +4924,19 @@
         <v>91290</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74028</v>
+        <v>74989</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>108006</v>
+        <v>109634</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1871846716028481</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1517888056684544</v>
+        <v>0.1537592246649842</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2214604157513296</v>
+        <v>0.2247970146450776</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>79</v>
@@ -4945,19 +4945,19 @@
         <v>78495</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>63081</v>
+        <v>63801</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>93944</v>
+        <v>94399</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2150888518423594</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1728520607851428</v>
+        <v>0.1748258273069337</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2574203988935163</v>
+        <v>0.2586686048482011</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>165</v>
@@ -4966,19 +4966,19 @@
         <v>169785</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>150487</v>
+        <v>148709</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>194882</v>
+        <v>196588</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1991280105117285</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.176494685443593</v>
+        <v>0.1744100195354886</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2285620586735405</v>
+        <v>0.2305633407665029</v>
       </c>
     </row>
     <row r="24">
@@ -4995,19 +4995,19 @@
         <v>126375</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>107292</v>
+        <v>108832</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>149050</v>
+        <v>146333</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2591230739029844</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2199956549932083</v>
+        <v>0.2231526938352871</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3056185515196972</v>
+        <v>0.3000466848199422</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>81</v>
@@ -5016,19 +5016,19 @@
         <v>80958</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>65876</v>
+        <v>67983</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>98122</v>
+        <v>99337</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2218388975760485</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1805107606658836</v>
+        <v>0.1862837114094474</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2688709204725387</v>
+        <v>0.2721999686369206</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>201</v>
@@ -5037,19 +5037,19 @@
         <v>207333</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>184327</v>
+        <v>184173</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>234465</v>
+        <v>233910</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2431649790946472</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2161828299778952</v>
+        <v>0.2160031058414288</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.27498694543351</v>
+        <v>0.2743354794136832</v>
       </c>
     </row>
     <row r="25">
@@ -5066,19 +5066,19 @@
         <v>104732</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87135</v>
+        <v>86690</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124932</v>
+        <v>123042</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2147459453590288</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1786640437654972</v>
+        <v>0.1777521320154741</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2561658420506993</v>
+        <v>0.2522908196561273</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>72</v>
@@ -5087,19 +5087,19 @@
         <v>71450</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57962</v>
+        <v>57558</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87231</v>
+        <v>86751</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1957851714246636</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1588248291974008</v>
+        <v>0.1577178713068238</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2390277196165326</v>
+        <v>0.2377124195791066</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>172</v>
@@ -5108,19 +5108,19 @@
         <v>176182</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>153601</v>
+        <v>152977</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>200438</v>
+        <v>200855</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2066304964503332</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1801474848324364</v>
+        <v>0.1794154636655045</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2350792914260915</v>
+        <v>0.2355677185386643</v>
       </c>
     </row>
     <row r="26">
@@ -5137,19 +5137,19 @@
         <v>96414</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>80040</v>
+        <v>79671</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>117195</v>
+        <v>114906</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1976914702990544</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1641173642310277</v>
+        <v>0.1633595706390374</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2403009415214556</v>
+        <v>0.235608039936338</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>65</v>
@@ -5158,19 +5158,19 @@
         <v>71692</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>56999</v>
+        <v>57028</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>86984</v>
+        <v>85790</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1964480260169963</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.156185280165567</v>
+        <v>0.1562661742343972</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2383501037085967</v>
+        <v>0.2350786366850181</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>156</v>
@@ -5179,19 +5179,19 @@
         <v>168106</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>147374</v>
+        <v>147109</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>193940</v>
+        <v>194424</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1971592605603178</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.172843493424109</v>
+        <v>0.1725337160883625</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2274578834976946</v>
+        <v>0.228025184903235</v>
       </c>
     </row>
     <row r="27">
@@ -5283,19 +5283,19 @@
         <v>40397</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30486</v>
+        <v>29996</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54676</v>
+        <v>52758</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2092887253576955</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1579395429986522</v>
+        <v>0.15540376417593</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2832622971053908</v>
+        <v>0.2733259915838545</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>30</v>
@@ -5304,19 +5304,19 @@
         <v>30181</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20228</v>
+        <v>20885</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>40600</v>
+        <v>40796</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1527240357385877</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1023567955797446</v>
+        <v>0.1056837892699911</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2054466782271698</v>
+        <v>0.2064384158972452</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>65</v>
@@ -5325,19 +5325,19 @@
         <v>70578</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>55645</v>
+        <v>56551</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>88050</v>
+        <v>87842</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1806735371795552</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1424469986297124</v>
+        <v>0.1447651206060043</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2253998416255689</v>
+        <v>0.2248669575691889</v>
       </c>
     </row>
     <row r="29">
@@ -5354,19 +5354,19 @@
         <v>41487</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>30670</v>
+        <v>30961</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>54496</v>
+        <v>54391</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2149337331402668</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.158895368196274</v>
+        <v>0.160399167964525</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2823325185091837</v>
+        <v>0.2817861771279566</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>34</v>
@@ -5375,19 +5375,19 @@
         <v>34395</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24350</v>
+        <v>25066</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>45689</v>
+        <v>46166</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1740477831723581</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1232147577712307</v>
+        <v>0.126839586066397</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.23119544427739</v>
+        <v>0.2336109831357277</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>72</v>
@@ -5396,19 +5396,19 @@
         <v>75882</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>61331</v>
+        <v>60179</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>92607</v>
+        <v>92060</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1942501731304454</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1570022199527732</v>
+        <v>0.1540521652860229</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2370653947384364</v>
+        <v>0.2356653542727231</v>
       </c>
     </row>
     <row r="30">
@@ -5425,19 +5425,19 @@
         <v>41737</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>31066</v>
+        <v>31260</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54842</v>
+        <v>54005</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2162281154951263</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1609454109684451</v>
+        <v>0.1619501883929596</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2841245837176584</v>
+        <v>0.2797890342592351</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -5446,19 +5446,19 @@
         <v>58990</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47100</v>
+        <v>47086</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>72931</v>
+        <v>72776</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2985018666311072</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2383365150320163</v>
+        <v>0.2382663560964256</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3690487711053107</v>
+        <v>0.3682642191682979</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>97</v>
@@ -5467,19 +5467,19 @@
         <v>100726</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>83122</v>
+        <v>85421</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>118885</v>
+        <v>119648</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2578491141557871</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2127836688619796</v>
+        <v>0.218669041906261</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3043326638865732</v>
+        <v>0.3062863109183582</v>
       </c>
     </row>
     <row r="31">
@@ -5496,19 +5496,19 @@
         <v>31208</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21131</v>
+        <v>21942</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42179</v>
+        <v>43280</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1616813137037508</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1094721786413875</v>
+        <v>0.113676450257895</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2185200765201081</v>
+        <v>0.2242241405457919</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>41</v>
@@ -5517,19 +5517,19 @@
         <v>43500</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>31603</v>
+        <v>32266</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>55252</v>
+        <v>56084</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2201197676300783</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1599164662701247</v>
+        <v>0.1632760714768483</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2795888576351082</v>
+        <v>0.2837989649975224</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>69</v>
@@ -5538,19 +5538,19 @@
         <v>74708</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>59514</v>
+        <v>59428</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>90657</v>
+        <v>91838</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1912444098190446</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1523488950940382</v>
+        <v>0.1521305928142872</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2320718039615228</v>
+        <v>0.2350972219447263</v>
       </c>
     </row>
     <row r="32">
@@ -5567,19 +5567,19 @@
         <v>38193</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>28238</v>
+        <v>27928</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49083</v>
+        <v>49230</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1978681123031606</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1462955007629893</v>
+        <v>0.1446878659104264</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2542890628440853</v>
+        <v>0.2550464487964102</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>29</v>
@@ -5588,19 +5588,19 @@
         <v>30553</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19794</v>
+        <v>22012</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>41493</v>
+        <v>42218</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1546065468278686</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1001603237269811</v>
+        <v>0.1113853210794882</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2099652726648366</v>
+        <v>0.2136355598747707</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>65</v>
@@ -5609,19 +5609,19 @@
         <v>68746</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>55290</v>
+        <v>55045</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>84168</v>
+        <v>86404</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1759827657151677</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1415372289429619</v>
+        <v>0.1409085837120527</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2154626714078856</v>
+        <v>0.2211857549972608</v>
       </c>
     </row>
     <row r="33">
@@ -5713,19 +5713,19 @@
         <v>181453</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>156314</v>
+        <v>158277</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>213107</v>
+        <v>210496</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1281143089330499</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1103652759262319</v>
+        <v>0.1117509877520009</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1504636054651228</v>
+        <v>0.1486198790116132</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>154</v>
@@ -5734,19 +5734,19 @@
         <v>155972</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>133115</v>
+        <v>134492</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>180632</v>
+        <v>180274</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1512781646744763</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1291084653081631</v>
+        <v>0.1304443574149227</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1751959450067699</v>
+        <v>0.1748488332557909</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>319</v>
@@ -5755,19 +5755,19 @@
         <v>337425</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>302817</v>
+        <v>304156</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>371641</v>
+        <v>372447</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1378728020583596</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1237319633110563</v>
+        <v>0.1242789691995653</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1518536575365665</v>
+        <v>0.1521829175488051</v>
       </c>
     </row>
     <row r="35">
@@ -5784,19 +5784,19 @@
         <v>224892</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>197387</v>
+        <v>197804</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>255991</v>
+        <v>253777</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1587839403078326</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1393644584993994</v>
+        <v>0.1396589249419461</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.180741644995669</v>
+        <v>0.1791787082115796</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>187</v>
@@ -5805,19 +5805,19 @@
         <v>188822</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>164184</v>
+        <v>165483</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>211473</v>
+        <v>213890</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1831395753610854</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1592427337764536</v>
+        <v>0.1605024568063547</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2051090030201069</v>
+        <v>0.2074529471642982</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>396</v>
@@ -5826,19 +5826,19 @@
         <v>413714</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>377244</v>
+        <v>378639</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>453908</v>
+        <v>451818</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1690445074553244</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1541430360525183</v>
+        <v>0.1547128351384082</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1854679055867466</v>
+        <v>0.1846141921519543</v>
       </c>
     </row>
     <row r="36">
@@ -5855,19 +5855,19 @@
         <v>362512</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>330068</v>
+        <v>329880</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>398485</v>
+        <v>397903</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2559501661815195</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2330430986586944</v>
+        <v>0.2329104154494386</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2813488515606303</v>
+        <v>0.280938285637594</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>262</v>
@@ -5876,19 +5876,19 @@
         <v>263594</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>236998</v>
+        <v>235123</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>291705</v>
+        <v>291262</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2556610411307172</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2298651789658872</v>
+        <v>0.22804651245563</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2829256737522964</v>
+        <v>0.2824964888566642</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>602</v>
@@ -5897,19 +5897,19 @@
         <v>626105</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>582343</v>
+        <v>583187</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>666559</v>
+        <v>668436</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2558283632808235</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2379467449160404</v>
+        <v>0.2382918982258654</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2723578786665087</v>
+        <v>0.2731247578141563</v>
       </c>
     </row>
     <row r="37">
@@ -5926,19 +5926,19 @@
         <v>296563</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>266245</v>
+        <v>265220</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>330007</v>
+        <v>328249</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2093872875180533</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1879816250648257</v>
+        <v>0.1872577901912385</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2330002802810571</v>
+        <v>0.2317592110070219</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>187</v>
@@ -5947,19 +5947,19 @@
         <v>190538</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>168037</v>
+        <v>166113</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>215853</v>
+        <v>216525</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1848037098650913</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1629802003877324</v>
+        <v>0.1611137938507111</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2093567444245608</v>
+        <v>0.2100083544860673</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>462</v>
@@ -5968,19 +5968,19 @@
         <v>487101</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>447941</v>
+        <v>448199</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>526194</v>
+        <v>530903</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1990306924761964</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.183030115865552</v>
+        <v>0.1831353325866944</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2150044280808008</v>
+        <v>0.2169284934640334</v>
       </c>
     </row>
     <row r="38">
@@ -5997,19 +5997,19 @@
         <v>350918</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>321455</v>
+        <v>319172</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>386719</v>
+        <v>383337</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2477642970595447</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2269621508631427</v>
+        <v>0.2253499709967105</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2730416496171114</v>
+        <v>0.2706538474220149</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>217</v>
@@ -6018,19 +6018,19 @@
         <v>232103</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>205126</v>
+        <v>205242</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>260321</v>
+        <v>259374</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2251175089686296</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1989522368748395</v>
+        <v>0.1990654360195555</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2524866689948675</v>
+        <v>0.25156830173448</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>545</v>
@@ -6039,19 +6039,19 @@
         <v>583020</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>543312</v>
+        <v>543217</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>629375</v>
+        <v>630129</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2382236347292961</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.221998729945372</v>
+        <v>0.2219601018229425</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2571641361593321</v>
+        <v>0.2574724528057279</v>
       </c>
     </row>
     <row r="39">
